--- a/medicine/Psychotrope/Colli_Orientali_del_Friuli_Verduzzo_Friulano/Colli_Orientali_del_Friuli_Verduzzo_Friulano.xlsx
+++ b/medicine/Psychotrope/Colli_Orientali_del_Friuli_Verduzzo_Friulano/Colli_Orientali_del_Friuli_Verduzzo_Friulano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli Orientali del Friuli Verduzzo Friulano est un vin blanc italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 20 juillet 1970. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent au nord - est de la province d'Udine dans les communes de Tarcento, Nimis, Faedis, Povoletto, Attimis, Torreano, San Pietro al Natisone, Prepotto, Premariacco, Buttrio, Manzano, San Giovanni al Natisone et Corno di Rosazzo.
@@ -514,7 +526,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: jaune doré plus ou moins intense
 odeur: caractéristique, fruité avec des arômes de fleurs d’acacia et de vanille
@@ -548,7 +562,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
 Udine (1990/91) 5161,94
